--- a/tests/test-files/test_merge_move/test_merge/input/reformat_neg_input/sheet_6.xlsx
+++ b/tests/test-files/test_merge_move/test_merge/input/reformat_neg_input/sheet_6.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I211"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,11 @@
           <t>proton_peak_index</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ppm</t>
+        </is>
+      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>polymer_name</t>
@@ -478,20 +482,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ppm</t>
+          <t>sample_size</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sample_size</t>
+          <t>t_results</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>t_results</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>significance</t>
         </is>
@@ -516,15 +515,12 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.004007201850002893</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" t="n">
         <v>-0.0003806630442080763</v>
       </c>
-      <c r="I2" t="b">
+      <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -543,15 +539,12 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.003899743581314011</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="n">
         <v>-0.003623934956047649</v>
       </c>
-      <c r="I3" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -570,15 +563,12 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.004881666382155477</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
         <v>-0.002015337743484079</v>
       </c>
-      <c r="I4" t="b">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,15 +589,12 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.00442477871386429</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
         <v>-0.001707494708868785</v>
       </c>
-      <c r="I5" t="b">
+      <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -626,15 +613,12 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.004058899686696748</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
-      </c>
-      <c r="H6" t="n">
         <v>-0.001963109237613057</v>
       </c>
-      <c r="I6" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -653,15 +637,12 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.005336165914462135</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" t="n">
         <v>-0.002727246835576158</v>
       </c>
-      <c r="I7" t="b">
+      <c r="H7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -682,15 +663,12 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.004573583569441637</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="n">
         <v>0.000114472004666087</v>
       </c>
-      <c r="I8" t="b">
+      <c r="H8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -709,15 +687,12 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.004339777260029209</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="n">
         <v>5.010280598104124e-05</v>
       </c>
-      <c r="I9" t="b">
+      <c r="H9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -736,15 +711,12 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.005706721183540247</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="n">
         <v>-0.002364217896913002</v>
       </c>
-      <c r="I10" t="b">
+      <c r="H10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -765,15 +737,12 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.004670653059262717</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" t="n">
         <v>0.002298201861964348</v>
       </c>
-      <c r="I11" t="b">
+      <c r="H11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -792,15 +761,12 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.004176481772975959</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" t="n">
         <v>0.004273524129078702</v>
       </c>
-      <c r="I12" t="b">
+      <c r="H12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -819,15 +785,12 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.005572581687751765</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" t="n">
         <v>-0.005229987769340611</v>
       </c>
-      <c r="I13" t="b">
+      <c r="H13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -848,15 +811,12 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.004468295722830642</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" t="n">
         <v>-0.0007108506813727246</v>
       </c>
-      <c r="I14" t="b">
+      <c r="H14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -875,15 +835,12 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.004509286713734946</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" t="n">
         <v>-0.001197716925068763</v>
       </c>
-      <c r="I15" t="b">
+      <c r="H15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -902,15 +859,12 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.005548333083007897</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
-      </c>
-      <c r="H16" t="n">
         <v>-0.0001099081820682369</v>
       </c>
-      <c r="I16" t="b">
+      <c r="H16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -931,15 +885,12 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.004981733299431779</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" t="n">
         <v>0.0005435336307266269</v>
       </c>
-      <c r="I17" t="b">
+      <c r="H17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -958,15 +909,12 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.004312037414803674</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
-      </c>
-      <c r="H18" t="n">
         <v>0.004712258043484931</v>
       </c>
-      <c r="I18" t="b">
+      <c r="H18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -985,15 +933,12 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.005496786940264941</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
-      </c>
-      <c r="H19" t="n">
         <v>-0.001578833210295381</v>
       </c>
-      <c r="I19" t="b">
+      <c r="H19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1014,15 +959,12 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.004544337135380693</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
-      </c>
-      <c r="H20" t="n">
         <v>0.002010089352051281</v>
       </c>
-      <c r="I20" t="b">
+      <c r="H20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1041,15 +983,12 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0042439368515566</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" t="n">
         <v>0.003121881612524727</v>
       </c>
-      <c r="I21" t="b">
+      <c r="H21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1068,15 +1007,12 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.005606930235580539</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
-      </c>
-      <c r="H22" t="n">
         <v>-0.002205122939490117</v>
       </c>
-      <c r="I22" t="b">
+      <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1099,15 +1035,12 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.002884267671350822</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
-      </c>
-      <c r="H23" t="n">
         <v>0.002312645087535526</v>
       </c>
-      <c r="I23" t="b">
+      <c r="H23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1126,15 +1059,12 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.005616908995761473</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
-      </c>
-      <c r="H24" t="n">
         <v>0.0008636964003752145</v>
       </c>
-      <c r="I24" t="b">
+      <c r="H24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1153,15 +1083,12 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.004627742430170436</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
-      </c>
-      <c r="H25" t="n">
         <v>-0.001213607977996814</v>
       </c>
-      <c r="I25" t="b">
+      <c r="H25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1182,15 +1109,12 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.002891827565168245</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
-      </c>
-      <c r="H26" t="n">
         <v>0.0007454409032769745</v>
       </c>
-      <c r="I26" t="b">
+      <c r="H26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1209,15 +1133,12 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.005782185284705619</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
-      </c>
-      <c r="H27" t="n">
         <v>0.0003076532292168887</v>
       </c>
-      <c r="I27" t="b">
+      <c r="H27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1236,15 +1157,12 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.004807355475380103</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
-      </c>
-      <c r="H28" t="n">
         <v>-0.0004698808701818909</v>
       </c>
-      <c r="I28" t="b">
+      <c r="H28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1265,15 +1183,12 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.002806005464475605</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
-      </c>
-      <c r="H29" t="n">
         <v>0.001348019608175723</v>
       </c>
-      <c r="I29" t="b">
+      <c r="H29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1292,15 +1207,12 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.00557796259100632</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
-      </c>
-      <c r="H30" t="n">
         <v>-0.0008265312269515853</v>
       </c>
-      <c r="I30" t="b">
+      <c r="H30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1319,15 +1231,12 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.004963768729503799</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
-      </c>
-      <c r="H31" t="n">
         <v>0.001258752953781842</v>
       </c>
-      <c r="I31" t="b">
+      <c r="H31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1348,15 +1257,12 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.00293172304285382</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
-      </c>
-      <c r="H32" t="n">
         <v>0.005041596752509045</v>
       </c>
-      <c r="I32" t="b">
+      <c r="H32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1375,15 +1281,12 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.005918586542973395</v>
+        <v>6</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
-      </c>
-      <c r="H33" t="n">
         <v>0.003545429930057908</v>
       </c>
-      <c r="I33" t="b">
+      <c r="H33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1402,15 +1305,12 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.004685047136013383</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
-      </c>
-      <c r="H34" t="n">
         <v>9.637556560442104e-05</v>
       </c>
-      <c r="I34" t="b">
+      <c r="H34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1431,15 +1331,12 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.002926203456130057</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
-      </c>
-      <c r="H35" t="n">
         <v>0.004464607443471318</v>
       </c>
-      <c r="I35" t="b">
+      <c r="H35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1458,15 +1355,12 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.005932200266342981</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
-      </c>
-      <c r="H36" t="n">
         <v>0.003815256992485123</v>
       </c>
-      <c r="I36" t="b">
+      <c r="H36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1485,15 +1379,12 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.00492168670274728</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
-      </c>
-      <c r="H37" t="n">
         <v>0.001889515241989911</v>
       </c>
-      <c r="I37" t="b">
+      <c r="H37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1514,15 +1405,12 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.002829428682025184</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
-      </c>
-      <c r="H38" t="n">
         <v>0.004873473189681269</v>
       </c>
-      <c r="I38" t="b">
+      <c r="H38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1541,15 +1429,12 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.005614267539047274</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
-      </c>
-      <c r="H39" t="n">
         <v>0.006032807297620285</v>
       </c>
-      <c r="I39" t="b">
+      <c r="H39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1568,15 +1453,12 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.004952339514478615</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
-      </c>
-      <c r="H40" t="n">
         <v>0.001535291846497728</v>
       </c>
-      <c r="I40" t="b">
+      <c r="H40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1597,15 +1479,12 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.002741289234405386</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
-      </c>
-      <c r="H41" t="n">
         <v>0.006614412702012964</v>
       </c>
-      <c r="I41" t="b">
+      <c r="H41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1624,15 +1503,12 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.005619163638834575</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
-      </c>
-      <c r="H42" t="n">
         <v>-0.01882274023317073</v>
       </c>
-      <c r="I42" t="b">
+      <c r="H42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1651,15 +1527,12 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.00511338113841184</v>
+        <v>6</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
-      </c>
-      <c r="H43" t="n">
         <v>0.000372209126120732</v>
       </c>
-      <c r="I43" t="b">
+      <c r="H43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1682,15 +1555,12 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.002742565708723608</v>
+        <v>6</v>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
-      </c>
-      <c r="H44" t="n">
         <v>0.001098768697647437</v>
       </c>
-      <c r="I44" t="b">
+      <c r="H44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1709,15 +1579,12 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.008039009059994075</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
-      </c>
-      <c r="H45" t="n">
         <v>-0.002930186881313538</v>
       </c>
-      <c r="I45" t="b">
+      <c r="H45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1736,15 +1603,12 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.01520325623016331</v>
+        <v>6</v>
       </c>
       <c r="G46" t="n">
-        <v>6</v>
-      </c>
-      <c r="H46" t="n">
         <v>-0.001990423810126945</v>
       </c>
-      <c r="I46" t="b">
+      <c r="H46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1765,15 +1629,12 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.002348332741897218</v>
+        <v>6</v>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
-      </c>
-      <c r="H47" t="n">
         <v>0.001680246448277806</v>
       </c>
-      <c r="I47" t="b">
+      <c r="H47" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1792,15 +1653,12 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.007572956269956025</v>
+        <v>6</v>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
-      </c>
-      <c r="H48" t="n">
         <v>0.001633757017320358</v>
       </c>
-      <c r="I48" t="b">
+      <c r="H48" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1819,15 +1677,12 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.01454271868209885</v>
+        <v>6</v>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
-      </c>
-      <c r="H49" t="n">
         <v>-0.002063048716989528</v>
       </c>
-      <c r="I49" t="b">
+      <c r="H49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1848,15 +1703,12 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.00239332404826435</v>
+        <v>6</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
-      </c>
-      <c r="H50" t="n">
         <v>0.004298682940362336</v>
       </c>
-      <c r="I50" t="b">
+      <c r="H50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1875,15 +1727,12 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.007516492976559443</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
-      </c>
-      <c r="H51" t="n">
         <v>0.002955229002669554</v>
       </c>
-      <c r="I51" t="b">
+      <c r="H51" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1902,15 +1751,12 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.01453804205065685</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
-      </c>
-      <c r="H52" t="n">
         <v>0.002812665765654127</v>
       </c>
-      <c r="I52" t="b">
+      <c r="H52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1931,15 +1777,12 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.002574813909133483</v>
+        <v>6</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
-      </c>
-      <c r="H53" t="n">
         <v>0.005917274587186284</v>
       </c>
-      <c r="I53" t="b">
+      <c r="H53" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1958,15 +1801,12 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.0077464185272937</v>
+        <v>6</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
-      </c>
-      <c r="H54" t="n">
         <v>0.004166570397752608</v>
       </c>
-      <c r="I54" t="b">
+      <c r="H54" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1985,15 +1825,12 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.0176471716336264</v>
+        <v>6</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
-      </c>
-      <c r="H55" t="n">
         <v>0.003625969197185202</v>
       </c>
-      <c r="I55" t="b">
+      <c r="H55" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2014,15 +1851,12 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.002195146160661365</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
-      </c>
-      <c r="H56" t="n">
         <v>0.005939193347684149</v>
       </c>
-      <c r="I56" t="b">
+      <c r="H56" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2041,15 +1875,12 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.00751658166988159</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
-      </c>
-      <c r="H57" t="n">
         <v>0.00489066911550325</v>
       </c>
-      <c r="I57" t="b">
+      <c r="H57" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2068,15 +1899,12 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.01742612024136953</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
-      </c>
-      <c r="H58" t="n">
         <v>0.003773497538718345</v>
       </c>
-      <c r="I58" t="b">
+      <c r="H58" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2097,15 +1925,12 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.002602050473504822</v>
+        <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>6</v>
-      </c>
-      <c r="H59" t="n">
         <v>0.006922695723366049</v>
       </c>
-      <c r="I59" t="b">
+      <c r="H59" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2124,15 +1949,12 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.007486699317233703</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
-      </c>
-      <c r="H60" t="n">
         <v>0.006430532075566412</v>
       </c>
-      <c r="I60" t="b">
+      <c r="H60" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2151,15 +1973,12 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.01749274135177218</v>
+        <v>6</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
-      </c>
-      <c r="H61" t="n">
         <v>0.003724262594203507</v>
       </c>
-      <c r="I61" t="b">
+      <c r="H61" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2180,15 +1999,12 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.002084866102814984</v>
+        <v>6</v>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
-      </c>
-      <c r="H62" t="n">
         <v>0.008301867606228258</v>
       </c>
-      <c r="I62" t="b">
+      <c r="H62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2207,15 +2023,12 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.007322681658154111</v>
+        <v>6</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
-      </c>
-      <c r="H63" t="n">
         <v>0.006722605509117413</v>
       </c>
-      <c r="I63" t="b">
+      <c r="H63" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2234,15 +2047,12 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.01699019324983279</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
-      </c>
-      <c r="H64" t="n">
         <v>0.006106666837501639</v>
       </c>
-      <c r="I64" t="b">
+      <c r="H64" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2265,15 +2075,12 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
-      </c>
-      <c r="H65" t="n">
         <v>-0.001767734343779408</v>
       </c>
-      <c r="I65" t="b">
+      <c r="H65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2292,15 +2099,12 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.001335290230624073</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
-      </c>
-      <c r="H66" t="n">
         <v>-0.001174718217758593</v>
       </c>
-      <c r="I66" t="b">
+      <c r="H66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2319,15 +2123,12 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.01119941962782008</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
-      </c>
-      <c r="H67" t="n">
         <v>-0.0006893516852983447</v>
       </c>
-      <c r="I67" t="b">
+      <c r="H67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2348,15 +2149,12 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.0001788854381999386</v>
+        <v>5</v>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
-      </c>
-      <c r="H68" t="n">
         <v>0.001615503938383767</v>
       </c>
-      <c r="I68" t="b">
+      <c r="H68" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2375,15 +2173,12 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.001251798705862858</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
-      </c>
-      <c r="H69" t="n">
         <v>-0.0003443700813284135</v>
       </c>
-      <c r="I69" t="b">
+      <c r="H69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2402,15 +2197,12 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.01089073000308056</v>
+        <v>5</v>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
-      </c>
-      <c r="H70" t="n">
         <v>0.001755172675911593</v>
       </c>
-      <c r="I70" t="b">
+      <c r="H70" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2431,15 +2223,12 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.000254950975679593</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
-      </c>
-      <c r="H71" t="n">
         <v>0.003593782422986178</v>
       </c>
-      <c r="I71" t="b">
+      <c r="H71" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2458,15 +2247,12 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.001192895636675728</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
-      </c>
-      <c r="H72" t="n">
         <v>0.003361200713624762</v>
       </c>
-      <c r="I72" t="b">
+      <c r="H72" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2485,15 +2271,12 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.0111081951729342</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
-      </c>
-      <c r="H73" t="n">
         <v>0.001694368022958072</v>
       </c>
-      <c r="I73" t="b">
+      <c r="H73" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2514,15 +2297,12 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.0003033150177620515</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
-      </c>
-      <c r="H74" t="n">
         <v>0.006323267798667345</v>
       </c>
-      <c r="I74" t="b">
+      <c r="H74" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2541,15 +2321,12 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.001254990039801059</v>
+        <v>5</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
-      </c>
-      <c r="H75" t="n">
         <v>0.002997746318866896</v>
       </c>
-      <c r="I75" t="b">
+      <c r="H75" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2568,15 +2345,12 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.01100013636279111</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
-      </c>
-      <c r="H76" t="n">
         <v>0.002485354534429666</v>
       </c>
-      <c r="I76" t="b">
+      <c r="H76" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2597,15 +2371,12 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0002121320343559235</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
-      </c>
-      <c r="H77" t="n">
         <v>0.008172452114891952</v>
       </c>
-      <c r="I77" t="b">
+      <c r="H77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2624,15 +2395,12 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.001064424727258745</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
-      </c>
-      <c r="H78" t="n">
         <v>0.004517540581452239</v>
       </c>
-      <c r="I78" t="b">
+      <c r="H78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2651,15 +2419,12 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.01157626882894496</v>
+        <v>5</v>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
-      </c>
-      <c r="H79" t="n">
         <v>0.004249747577907425</v>
       </c>
-      <c r="I79" t="b">
+      <c r="H79" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2680,15 +2445,12 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0001581138830083723</v>
+        <v>5</v>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
-      </c>
-      <c r="H80" t="n">
         <v>0.008224727793466188</v>
       </c>
-      <c r="I80" t="b">
+      <c r="H80" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2707,15 +2469,12 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.001126055060820739</v>
+        <v>5</v>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
-      </c>
-      <c r="H81" t="n">
         <v>0.00491798498135539</v>
       </c>
-      <c r="I81" t="b">
+      <c r="H81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2734,15 +2493,12 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.01103757219681933</v>
+        <v>5</v>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
-      </c>
-      <c r="H82" t="n">
         <v>0.004432480725452451</v>
       </c>
-      <c r="I82" t="b">
+      <c r="H82" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2763,15 +2519,12 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0004277849927240999</v>
+        <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
-      </c>
-      <c r="H83" t="n">
         <v>0.007162929116991575</v>
       </c>
-      <c r="I83" t="b">
+      <c r="H83" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2790,15 +2543,12 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0009772410142846262</v>
+        <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
-      </c>
-      <c r="H84" t="n">
         <v>0.004571776361906329</v>
       </c>
-      <c r="I84" t="b">
+      <c r="H84" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2817,15 +2567,12 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.01093334349593028</v>
+        <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
-      </c>
-      <c r="H85" t="n">
         <v>0.006097010051358641</v>
       </c>
-      <c r="I85" t="b">
+      <c r="H85" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2848,15 +2595,12 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.004912195707284833</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>6</v>
-      </c>
-      <c r="H86" t="n">
         <v>0.001538851360504918</v>
       </c>
-      <c r="I86" t="b">
+      <c r="H86" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2875,15 +2619,12 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.006971656904925828</v>
+        <v>6</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
-      </c>
-      <c r="H87" t="n">
         <v>0.0007456510155693472</v>
       </c>
-      <c r="I87" t="b">
+      <c r="H87" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2902,15 +2643,12 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.0193446030371953</v>
+        <v>6</v>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
-      </c>
-      <c r="H88" t="n">
         <v>-0.0002485394926993829</v>
       </c>
-      <c r="I88" t="b">
+      <c r="H88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2931,15 +2669,12 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.004425230690785113</v>
+        <v>6</v>
       </c>
       <c r="G89" t="n">
-        <v>6</v>
-      </c>
-      <c r="H89" t="n">
         <v>0.003155934633593025</v>
       </c>
-      <c r="I89" t="b">
+      <c r="H89" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2958,15 +2693,12 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.006909317380658252</v>
+        <v>6</v>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
-      </c>
-      <c r="H90" t="n">
         <v>0.002582064940940964</v>
       </c>
-      <c r="I90" t="b">
+      <c r="H90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2985,15 +2717,12 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.01911313684354295</v>
+        <v>6</v>
       </c>
       <c r="G91" t="n">
-        <v>6</v>
-      </c>
-      <c r="H91" t="n">
         <v>0.001257281961802017</v>
       </c>
-      <c r="I91" t="b">
+      <c r="H91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3014,15 +2743,12 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.004444959692355755</v>
+        <v>6</v>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
-      </c>
-      <c r="H92" t="n">
         <v>0.005888374469656295</v>
       </c>
-      <c r="I92" t="b">
+      <c r="H92" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3041,15 +2767,12 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.006951162972241918</v>
+        <v>6</v>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
-      </c>
-      <c r="H93" t="n">
         <v>0.004691881426328851</v>
       </c>
-      <c r="I93" t="b">
+      <c r="H93" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3068,15 +2791,12 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.01923195257897639</v>
+        <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>6</v>
-      </c>
-      <c r="H94" t="n">
         <v>0.002167777213840433</v>
       </c>
-      <c r="I94" t="b">
+      <c r="H94" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3097,15 +2817,12 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.004219794623754354</v>
+        <v>6</v>
       </c>
       <c r="G95" t="n">
-        <v>6</v>
-      </c>
-      <c r="H95" t="n">
         <v>0.00789179668392356</v>
       </c>
-      <c r="I95" t="b">
+      <c r="H95" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3124,15 +2841,12 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.006652342945659636</v>
+        <v>6</v>
       </c>
       <c r="G96" t="n">
-        <v>6</v>
-      </c>
-      <c r="H96" t="n">
         <v>0.006450453538800779</v>
       </c>
-      <c r="I96" t="b">
+      <c r="H96" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3151,15 +2865,12 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.01889296165242492</v>
+        <v>6</v>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
-      </c>
-      <c r="H97" t="n">
         <v>0.003797220867621753</v>
       </c>
-      <c r="I97" t="b">
+      <c r="H97" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3180,15 +2891,12 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.004305074525100121</v>
+        <v>6</v>
       </c>
       <c r="G98" t="n">
-        <v>6</v>
-      </c>
-      <c r="H98" t="n">
         <v>0.008616624779943599</v>
       </c>
-      <c r="I98" t="b">
+      <c r="H98" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3207,15 +2915,12 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.006645725443220353</v>
+        <v>6</v>
       </c>
       <c r="G99" t="n">
-        <v>6</v>
-      </c>
-      <c r="H99" t="n">
         <v>0.006629147156149712</v>
       </c>
-      <c r="I99" t="b">
+      <c r="H99" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3234,15 +2939,12 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.01893540775020879</v>
+        <v>6</v>
       </c>
       <c r="G100" t="n">
-        <v>6</v>
-      </c>
-      <c r="H100" t="n">
         <v>0.005378779135703667</v>
       </c>
-      <c r="I100" t="b">
+      <c r="H100" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3263,15 +2965,12 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.004335166279010226</v>
+        <v>6</v>
       </c>
       <c r="G101" t="n">
-        <v>6</v>
-      </c>
-      <c r="H101" t="n">
         <v>0.009529267674560854</v>
       </c>
-      <c r="I101" t="b">
+      <c r="H101" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3290,15 +2989,12 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.006830934538309305</v>
+        <v>6</v>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
-      </c>
-      <c r="H102" t="n">
         <v>0.006513368659481766</v>
       </c>
-      <c r="I102" t="b">
+      <c r="H102" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3317,15 +3013,12 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.0188949375936166</v>
+        <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>6</v>
-      </c>
-      <c r="H103" t="n">
         <v>0.005931961850935447</v>
       </c>
-      <c r="I103" t="b">
+      <c r="H103" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3346,15 +3039,12 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.004233871356886788</v>
+        <v>6</v>
       </c>
       <c r="G104" t="n">
-        <v>6</v>
-      </c>
-      <c r="H104" t="n">
         <v>0.0105456628452984</v>
       </c>
-      <c r="I104" t="b">
+      <c r="H104" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3373,15 +3063,12 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.006650238090975915</v>
+        <v>6</v>
       </c>
       <c r="G105" t="n">
-        <v>6</v>
-      </c>
-      <c r="H105" t="n">
         <v>0.009275276786661861</v>
       </c>
-      <c r="I105" t="b">
+      <c r="H105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3400,15 +3087,12 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.01884346040407648</v>
+        <v>6</v>
       </c>
       <c r="G106" t="n">
-        <v>6</v>
-      </c>
-      <c r="H106" t="n">
         <v>0.007073708742452185</v>
       </c>
-      <c r="I106" t="b">
+      <c r="H106" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3431,15 +3115,12 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4.472135954993501e-05</v>
+        <v>5</v>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
-      </c>
-      <c r="H107" t="n">
         <v>-0.0002144176441784569</v>
       </c>
-      <c r="I107" t="b">
+      <c r="H107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3458,15 +3139,12 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.0003633180424917107</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
-        <v>5</v>
-      </c>
-      <c r="H108" t="n">
         <v>0.0002040123124552539</v>
       </c>
-      <c r="I108" t="b">
+      <c r="H108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3485,15 +3163,12 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.0004393176527298588</v>
+        <v>5</v>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
-      </c>
-      <c r="H109" t="n">
         <v>-0.000256443254395135</v>
       </c>
-      <c r="I109" t="b">
+      <c r="H109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3514,15 +3189,12 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.0004037325847636981</v>
+        <v>5</v>
       </c>
       <c r="G110" t="n">
-        <v>5</v>
-      </c>
-      <c r="H110" t="n">
         <v>0.00419348826825152</v>
       </c>
-      <c r="I110" t="b">
+      <c r="H110" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3541,15 +3213,12 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.0004494441010849038</v>
+        <v>5</v>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
-      </c>
-      <c r="H111" t="n">
         <v>0.003213019320366386</v>
       </c>
-      <c r="I111" t="b">
+      <c r="H111" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3568,15 +3237,12 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.0005029910535984335</v>
+        <v>5</v>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
-      </c>
-      <c r="H112" t="n">
         <v>0.0009846515731933903</v>
       </c>
-      <c r="I112" t="b">
+      <c r="H112" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3597,15 +3263,12 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.0005540758070876955</v>
+        <v>5</v>
       </c>
       <c r="G113" t="n">
-        <v>5</v>
-      </c>
-      <c r="H113" t="n">
         <v>0.004773020397054896</v>
       </c>
-      <c r="I113" t="b">
+      <c r="H113" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3624,15 +3287,12 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.0005431390245599834</v>
+        <v>5</v>
       </c>
       <c r="G114" t="n">
-        <v>5</v>
-      </c>
-      <c r="H114" t="n">
         <v>0.004837235293511294</v>
       </c>
-      <c r="I114" t="b">
+      <c r="H114" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3651,15 +3311,12 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.0007402702209328778</v>
+        <v>5</v>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
-      </c>
-      <c r="H115" t="n">
         <v>0.001727947592393387</v>
       </c>
-      <c r="I115" t="b">
+      <c r="H115" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3680,15 +3337,12 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.0004774934554524721</v>
+        <v>5</v>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
-      </c>
-      <c r="H116" t="n">
         <v>0.007266123529007055</v>
       </c>
-      <c r="I116" t="b">
+      <c r="H116" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3707,15 +3361,12 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.0004868264577855528</v>
+        <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
-      </c>
-      <c r="H117" t="n">
         <v>0.005319146374199941</v>
       </c>
-      <c r="I117" t="b">
+      <c r="H117" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3734,15 +3385,12 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.000637965516309474</v>
+        <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
-      </c>
-      <c r="H118" t="n">
         <v>0.002646568152308068</v>
       </c>
-      <c r="I118" t="b">
+      <c r="H118" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3763,15 +3411,12 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.0007694153624668765</v>
+        <v>5</v>
       </c>
       <c r="G119" t="n">
-        <v>5</v>
-      </c>
-      <c r="H119" t="n">
         <v>0.007302926645909005</v>
       </c>
-      <c r="I119" t="b">
+      <c r="H119" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3790,15 +3435,12 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.0007956129712367666</v>
+        <v>5</v>
       </c>
       <c r="G120" t="n">
-        <v>5</v>
-      </c>
-      <c r="H120" t="n">
         <v>0.005886937383062634</v>
       </c>
-      <c r="I120" t="b">
+      <c r="H120" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3817,15 +3459,12 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.0009011104260854688</v>
+        <v>5</v>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
-      </c>
-      <c r="H121" t="n">
         <v>0.005124376180733448</v>
       </c>
-      <c r="I121" t="b">
+      <c r="H121" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3846,15 +3485,12 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.0006164414002968981</v>
+        <v>5</v>
       </c>
       <c r="G122" t="n">
-        <v>5</v>
-      </c>
-      <c r="H122" t="n">
         <v>0.008873335053006717</v>
       </c>
-      <c r="I122" t="b">
+      <c r="H122" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3873,15 +3509,12 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.0006204836822995498</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
-      </c>
-      <c r="H123" t="n">
         <v>0.007839262862315243</v>
       </c>
-      <c r="I123" t="b">
+      <c r="H123" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3900,15 +3533,12 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.0007694153624668604</v>
+        <v>5</v>
       </c>
       <c r="G124" t="n">
-        <v>5</v>
-      </c>
-      <c r="H124" t="n">
         <v>0.00452242229004488</v>
       </c>
-      <c r="I124" t="b">
+      <c r="H124" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3929,15 +3559,12 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.0005019960159204033</v>
+        <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
-      </c>
-      <c r="H125" t="n">
         <v>0.008030758202095749</v>
       </c>
-      <c r="I125" t="b">
+      <c r="H125" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3956,15 +3583,12 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.0006782329983125565</v>
+        <v>5</v>
       </c>
       <c r="G126" t="n">
-        <v>5</v>
-      </c>
-      <c r="H126" t="n">
         <v>0.007543989542507377</v>
       </c>
-      <c r="I126" t="b">
+      <c r="H126" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3983,15 +3607,12 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.0008228000972289749</v>
+        <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>5</v>
-      </c>
-      <c r="H127" t="n">
         <v>0.005512527127315216</v>
       </c>
-      <c r="I127" t="b">
+      <c r="H127" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4014,15 +3635,12 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.005459181867886994</v>
+        <v>6</v>
       </c>
       <c r="G128" t="n">
-        <v>6</v>
-      </c>
-      <c r="H128" t="n">
         <v>0.001120672419954242</v>
       </c>
-      <c r="I128" t="b">
+      <c r="H128" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4041,15 +3659,12 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.005603719003185826</v>
+        <v>6</v>
       </c>
       <c r="G129" t="n">
-        <v>6</v>
-      </c>
-      <c r="H129" t="n">
         <v>0.000712401960362651</v>
       </c>
-      <c r="I129" t="b">
+      <c r="H129" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4068,15 +3683,12 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.01803867142188318</v>
+        <v>6</v>
       </c>
       <c r="G130" t="n">
-        <v>6</v>
-      </c>
-      <c r="H130" t="n">
         <v>0.0008344907313263521</v>
       </c>
-      <c r="I130" t="b">
+      <c r="H130" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4097,15 +3709,12 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.004498295973662314</v>
+        <v>6</v>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
-      </c>
-      <c r="H131" t="n">
         <v>-0.005955274587429994</v>
       </c>
-      <c r="I131" t="b">
+      <c r="H131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4124,15 +3733,12 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.004703048656634</v>
+        <v>6</v>
       </c>
       <c r="G132" t="n">
-        <v>6</v>
-      </c>
-      <c r="H132" t="n">
         <v>-0.006762427179149667</v>
       </c>
-      <c r="I132" t="b">
+      <c r="H132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4151,15 +3757,12 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.01711568481442294</v>
+        <v>6</v>
       </c>
       <c r="G133" t="n">
-        <v>6</v>
-      </c>
-      <c r="H133" t="n">
         <v>-0.006706669859642477</v>
       </c>
-      <c r="I133" t="b">
+      <c r="H133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4180,15 +3783,12 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.004589843860815595</v>
+        <v>6</v>
       </c>
       <c r="G134" t="n">
-        <v>6</v>
-      </c>
-      <c r="H134" t="n">
         <v>0.003385580427865666</v>
       </c>
-      <c r="I134" t="b">
+      <c r="H134" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4207,15 +3807,12 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.004932511192756507</v>
+        <v>6</v>
       </c>
       <c r="G135" t="n">
-        <v>6</v>
-      </c>
-      <c r="H135" t="n">
         <v>0.003861115101565833</v>
       </c>
-      <c r="I135" t="b">
+      <c r="H135" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4234,15 +3831,12 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.01721004551611262</v>
+        <v>6</v>
       </c>
       <c r="G136" t="n">
-        <v>6</v>
-      </c>
-      <c r="H136" t="n">
         <v>0.003302205771916218</v>
       </c>
-      <c r="I136" t="b">
+      <c r="H136" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4263,15 +3857,12 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.004350632137977206</v>
+        <v>6</v>
       </c>
       <c r="G137" t="n">
-        <v>6</v>
-      </c>
-      <c r="H137" t="n">
         <v>0.005551246876004003</v>
       </c>
-      <c r="I137" t="b">
+      <c r="H137" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4290,15 +3881,12 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.004754646849837158</v>
+        <v>6</v>
       </c>
       <c r="G138" t="n">
-        <v>6</v>
-      </c>
-      <c r="H138" t="n">
         <v>0.00379139564864355</v>
       </c>
-      <c r="I138" t="b">
+      <c r="H138" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4317,15 +3905,12 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.01688886220758123</v>
+        <v>6</v>
       </c>
       <c r="G139" t="n">
-        <v>6</v>
-      </c>
-      <c r="H139" t="n">
         <v>0.003952247496482208</v>
       </c>
-      <c r="I139" t="b">
+      <c r="H139" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4346,15 +3931,12 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.00453651848888552</v>
+        <v>6</v>
       </c>
       <c r="G140" t="n">
-        <v>6</v>
-      </c>
-      <c r="H140" t="n">
         <v>0.008518914174123069</v>
       </c>
-      <c r="I140" t="b">
+      <c r="H140" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4373,15 +3955,12 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.005074905582044467</v>
+        <v>6</v>
       </c>
       <c r="G141" t="n">
-        <v>6</v>
-      </c>
-      <c r="H141" t="n">
         <v>0.006650885480473826</v>
       </c>
-      <c r="I141" t="b">
+      <c r="H141" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4400,15 +3979,12 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.01725707584345236</v>
+        <v>6</v>
       </c>
       <c r="G142" t="n">
-        <v>6</v>
-      </c>
-      <c r="H142" t="n">
         <v>0.004950555763802995</v>
       </c>
-      <c r="I142" t="b">
+      <c r="H142" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4429,15 +4005,12 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.004401211954299294</v>
+        <v>6</v>
       </c>
       <c r="G143" t="n">
-        <v>6</v>
-      </c>
-      <c r="H143" t="n">
         <v>0.007259789807965069</v>
       </c>
-      <c r="I143" t="b">
+      <c r="H143" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4456,15 +4029,12 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.004860726968948825</v>
+        <v>6</v>
       </c>
       <c r="G144" t="n">
-        <v>6</v>
-      </c>
-      <c r="H144" t="n">
         <v>0.006832028200648975</v>
       </c>
-      <c r="I144" t="b">
+      <c r="H144" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4483,15 +4053,12 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.01701254439132101</v>
+        <v>6</v>
       </c>
       <c r="G145" t="n">
-        <v>6</v>
-      </c>
-      <c r="H145" t="n">
         <v>0.004089020765296829</v>
       </c>
-      <c r="I145" t="b">
+      <c r="H145" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4512,15 +4079,12 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.004494737663831661</v>
+        <v>6</v>
       </c>
       <c r="G146" t="n">
-        <v>6</v>
-      </c>
-      <c r="H146" t="n">
         <v>0.00793945472429369</v>
       </c>
-      <c r="I146" t="b">
+      <c r="H146" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4539,15 +4103,12 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.004957418683145437</v>
+        <v>6</v>
       </c>
       <c r="G147" t="n">
-        <v>6</v>
-      </c>
-      <c r="H147" t="n">
         <v>0.00648075252205664</v>
       </c>
-      <c r="I147" t="b">
+      <c r="H147" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4566,15 +4127,12 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.01705126583766321</v>
+        <v>6</v>
       </c>
       <c r="G148" t="n">
-        <v>6</v>
-      </c>
-      <c r="H148" t="n">
         <v>0.003609750989391034</v>
       </c>
-      <c r="I148" t="b">
+      <c r="H148" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4597,15 +4155,12 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.004302557379047996</v>
+        <v>5</v>
       </c>
       <c r="G149" t="n">
-        <v>5</v>
-      </c>
-      <c r="H149" t="n">
         <v>0.0007398642680167948</v>
       </c>
-      <c r="I149" t="b">
+      <c r="H149" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4624,15 +4179,12 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.004605757266726061</v>
+        <v>5</v>
       </c>
       <c r="G150" t="n">
-        <v>5</v>
-      </c>
-      <c r="H150" t="n">
         <v>-0.001195799869406895</v>
       </c>
-      <c r="I150" t="b">
+      <c r="H150" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4651,15 +4203,12 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.02287994755238746</v>
+        <v>5</v>
       </c>
       <c r="G151" t="n">
-        <v>5</v>
-      </c>
-      <c r="H151" t="n">
         <v>-0.0009395038744895892</v>
       </c>
-      <c r="I151" t="b">
+      <c r="H151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4680,15 +4229,12 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.00405807836296941</v>
+        <v>5</v>
       </c>
       <c r="G152" t="n">
-        <v>5</v>
-      </c>
-      <c r="H152" t="n">
         <v>0.00186074020663025</v>
       </c>
-      <c r="I152" t="b">
+      <c r="H152" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4707,15 +4253,12 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.00417133072292281</v>
+        <v>5</v>
       </c>
       <c r="G153" t="n">
-        <v>5</v>
-      </c>
-      <c r="H153" t="n">
         <v>0.001398698996759226</v>
       </c>
-      <c r="I153" t="b">
+      <c r="H153" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4734,15 +4277,12 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.02269288434730149</v>
+        <v>5</v>
       </c>
       <c r="G154" t="n">
-        <v>5</v>
-      </c>
-      <c r="H154" t="n">
         <v>0.0001405167540322575</v>
       </c>
-      <c r="I154" t="b">
+      <c r="H154" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4763,15 +4303,12 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.004248882205945446</v>
+        <v>5</v>
       </c>
       <c r="G155" t="n">
-        <v>5</v>
-      </c>
-      <c r="H155" t="n">
         <v>0.004042037417358143</v>
       </c>
-      <c r="I155" t="b">
+      <c r="H155" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4790,15 +4327,12 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.004115458662166417</v>
+        <v>5</v>
       </c>
       <c r="G156" t="n">
-        <v>5</v>
-      </c>
-      <c r="H156" t="n">
         <v>0.002991601935342829</v>
       </c>
-      <c r="I156" t="b">
+      <c r="H156" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4817,15 +4351,12 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.02297309295676143</v>
+        <v>5</v>
       </c>
       <c r="G157" t="n">
-        <v>5</v>
-      </c>
-      <c r="H157" t="n">
         <v>0.001423574981345289</v>
       </c>
-      <c r="I157" t="b">
+      <c r="H157" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4846,15 +4377,12 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.004081298812878127</v>
+        <v>5</v>
       </c>
       <c r="G158" t="n">
-        <v>5</v>
-      </c>
-      <c r="H158" t="n">
         <v>0.006985906977695943</v>
       </c>
-      <c r="I158" t="b">
+      <c r="H158" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4873,15 +4401,12 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.003947530873850113</v>
+        <v>5</v>
       </c>
       <c r="G159" t="n">
-        <v>5</v>
-      </c>
-      <c r="H159" t="n">
         <v>0.004670568311958202</v>
       </c>
-      <c r="I159" t="b">
+      <c r="H159" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4900,15 +4425,12 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.02049334038169483</v>
+        <v>5</v>
       </c>
       <c r="G160" t="n">
-        <v>5</v>
-      </c>
-      <c r="H160" t="n">
         <v>0.004748805726894311</v>
       </c>
-      <c r="I160" t="b">
+      <c r="H160" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4929,15 +4451,12 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.004057955150072417</v>
+        <v>5</v>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
-      </c>
-      <c r="H161" t="n">
         <v>0.007348880042672564</v>
       </c>
-      <c r="I161" t="b">
+      <c r="H161" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4956,15 +4475,12 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.004034476422040478</v>
+        <v>5</v>
       </c>
       <c r="G162" t="n">
-        <v>5</v>
-      </c>
-      <c r="H162" t="n">
         <v>0.005712793321088793</v>
       </c>
-      <c r="I162" t="b">
+      <c r="H162" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4983,15 +4499,12 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.02285596202306947</v>
+        <v>5</v>
       </c>
       <c r="G163" t="n">
-        <v>5</v>
-      </c>
-      <c r="H163" t="n">
         <v>0.004506100323119087</v>
       </c>
-      <c r="I163" t="b">
+      <c r="H163" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5012,15 +4525,12 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.004237688048924809</v>
+        <v>5</v>
       </c>
       <c r="G164" t="n">
-        <v>5</v>
-      </c>
-      <c r="H164" t="n">
         <v>0.008194107800378814</v>
       </c>
-      <c r="I164" t="b">
+      <c r="H164" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5039,15 +4549,12 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.004224570984135545</v>
+        <v>5</v>
       </c>
       <c r="G165" t="n">
-        <v>5</v>
-      </c>
-      <c r="H165" t="n">
         <v>0.007068908809995484</v>
       </c>
-      <c r="I165" t="b">
+      <c r="H165" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5066,15 +4573,12 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.02301655925632673</v>
+        <v>5</v>
       </c>
       <c r="G166" t="n">
-        <v>5</v>
-      </c>
-      <c r="H166" t="n">
         <v>0.005522494552392236</v>
       </c>
-      <c r="I166" t="b">
+      <c r="H166" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5095,15 +4599,12 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.003977184934095981</v>
+        <v>5</v>
       </c>
       <c r="G167" t="n">
-        <v>5</v>
-      </c>
-      <c r="H167" t="n">
         <v>0.008578723592103717</v>
       </c>
-      <c r="I167" t="b">
+      <c r="H167" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5122,15 +4623,12 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.003768686773930757</v>
+        <v>5</v>
       </c>
       <c r="G168" t="n">
-        <v>5</v>
-      </c>
-      <c r="H168" t="n">
         <v>0.005825634413196159</v>
       </c>
-      <c r="I168" t="b">
+      <c r="H168" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5149,15 +4647,12 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.02032641139011025</v>
+        <v>5</v>
       </c>
       <c r="G169" t="n">
-        <v>5</v>
-      </c>
-      <c r="H169" t="n">
         <v>0.00596462506220473</v>
       </c>
-      <c r="I169" t="b">
+      <c r="H169" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5180,15 +4675,12 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.003945334797791809</v>
+        <v>6</v>
       </c>
       <c r="G170" t="n">
-        <v>6</v>
-      </c>
-      <c r="H170" t="n">
         <v>0.0003577252832977018</v>
       </c>
-      <c r="I170" t="b">
+      <c r="H170" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5207,15 +4699,12 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.003228880094811015</v>
+        <v>6</v>
       </c>
       <c r="G171" t="n">
-        <v>6</v>
-      </c>
-      <c r="H171" t="n">
         <v>-0.002206595451634107</v>
       </c>
-      <c r="I171" t="b">
+      <c r="H171" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5234,15 +4723,12 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0.02247092936811175</v>
+        <v>6</v>
       </c>
       <c r="G172" t="n">
-        <v>6</v>
-      </c>
-      <c r="H172" t="n">
         <v>-0.0002429031647848854</v>
       </c>
-      <c r="I172" t="b">
+      <c r="H172" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5263,15 +4749,12 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.003530816713830805</v>
+        <v>6</v>
       </c>
       <c r="G173" t="n">
-        <v>6</v>
-      </c>
-      <c r="H173" t="n">
         <v>0.001518331525202509</v>
       </c>
-      <c r="I173" t="b">
+      <c r="H173" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5290,15 +4773,12 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.0023455631875238</v>
+        <v>6</v>
       </c>
       <c r="G174" t="n">
-        <v>6</v>
-      </c>
-      <c r="H174" t="n">
         <v>-0.0002010215181450924</v>
       </c>
-      <c r="I174" t="b">
+      <c r="H174" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5317,15 +4797,12 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.02190549398362583</v>
+        <v>6</v>
       </c>
       <c r="G175" t="n">
-        <v>6</v>
-      </c>
-      <c r="H175" t="n">
         <v>0.001093078998041677</v>
       </c>
-      <c r="I175" t="b">
+      <c r="H175" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5346,15 +4823,12 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.003436665050112748</v>
+        <v>6</v>
       </c>
       <c r="G176" t="n">
-        <v>6</v>
-      </c>
-      <c r="H176" t="n">
         <v>0.0027764542097747</v>
       </c>
-      <c r="I176" t="b">
+      <c r="H176" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5373,15 +4847,12 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.002299927535090261</v>
+        <v>6</v>
       </c>
       <c r="G177" t="n">
-        <v>6</v>
-      </c>
-      <c r="H177" t="n">
         <v>0.001893738363981345</v>
       </c>
-      <c r="I177" t="b">
+      <c r="H177" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5400,15 +4871,12 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.02190859800778379</v>
+        <v>6</v>
       </c>
       <c r="G178" t="n">
-        <v>6</v>
-      </c>
-      <c r="H178" t="n">
         <v>0.0004910873681276567</v>
       </c>
-      <c r="I178" t="b">
+      <c r="H178" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5429,15 +4897,12 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.00362017494973197</v>
+        <v>6</v>
       </c>
       <c r="G179" t="n">
-        <v>6</v>
-      </c>
-      <c r="H179" t="n">
         <v>0.003396973384217573</v>
       </c>
-      <c r="I179" t="b">
+      <c r="H179" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5456,15 +4921,12 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.002417988144443005</v>
+        <v>6</v>
       </c>
       <c r="G180" t="n">
-        <v>6</v>
-      </c>
-      <c r="H180" t="n">
         <v>0.001997784922951789</v>
       </c>
-      <c r="I180" t="b">
+      <c r="H180" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5483,15 +4945,12 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.0221191998046945</v>
+        <v>6</v>
       </c>
       <c r="G181" t="n">
-        <v>6</v>
-      </c>
-      <c r="H181" t="n">
         <v>0.0007985238252088103</v>
       </c>
-      <c r="I181" t="b">
+      <c r="H181" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5512,15 +4971,12 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.003576963330349794</v>
+        <v>6</v>
       </c>
       <c r="G182" t="n">
-        <v>6</v>
-      </c>
-      <c r="H182" t="n">
         <v>0.003769113155848263</v>
       </c>
-      <c r="I182" t="b">
+      <c r="H182" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5539,15 +4995,12 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.002418608415322091</v>
+        <v>6</v>
       </c>
       <c r="G183" t="n">
-        <v>6</v>
-      </c>
-      <c r="H183" t="n">
         <v>0.002659815781280592</v>
       </c>
-      <c r="I183" t="b">
+      <c r="H183" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5566,15 +5019,12 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.0220493688496216</v>
+        <v>6</v>
       </c>
       <c r="G184" t="n">
-        <v>6</v>
-      </c>
-      <c r="H184" t="n">
         <v>0.001875656981501525</v>
       </c>
-      <c r="I184" t="b">
+      <c r="H184" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5595,15 +5045,12 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.003556777567780485</v>
+        <v>6</v>
       </c>
       <c r="G185" t="n">
-        <v>6</v>
-      </c>
-      <c r="H185" t="n">
         <v>0.003240366166927348</v>
       </c>
-      <c r="I185" t="b">
+      <c r="H185" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5622,15 +5069,12 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.002382995314025243</v>
+        <v>6</v>
       </c>
       <c r="G186" t="n">
-        <v>6</v>
-      </c>
-      <c r="H186" t="n">
         <v>0.002166731734004641</v>
       </c>
-      <c r="I186" t="b">
+      <c r="H186" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5649,15 +5093,12 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.02212613085622223</v>
+        <v>6</v>
       </c>
       <c r="G187" t="n">
-        <v>6</v>
-      </c>
-      <c r="H187" t="n">
         <v>0.0005208428200980586</v>
       </c>
-      <c r="I187" t="b">
+      <c r="H187" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5678,15 +5119,12 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.0033910175464011</v>
+        <v>6</v>
       </c>
       <c r="G188" t="n">
-        <v>6</v>
-      </c>
-      <c r="H188" t="n">
         <v>0.004319037372332278</v>
       </c>
-      <c r="I188" t="b">
+      <c r="H188" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5705,15 +5143,12 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.002240014880902921</v>
+        <v>6</v>
       </c>
       <c r="G189" t="n">
-        <v>6</v>
-      </c>
-      <c r="H189" t="n">
         <v>0.00242136872512626</v>
       </c>
-      <c r="I189" t="b">
+      <c r="H189" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5732,15 +5167,12 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.02200003787875512</v>
+        <v>6</v>
       </c>
       <c r="G190" t="n">
-        <v>6</v>
-      </c>
-      <c r="H190" t="n">
         <v>0.002031012334338832</v>
       </c>
-      <c r="I190" t="b">
+      <c r="H190" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5763,15 +5195,12 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.002671298061492381</v>
+        <v>4</v>
       </c>
       <c r="G191" t="n">
-        <v>4</v>
-      </c>
-      <c r="H191" t="n">
         <v>-0.001680209075866684</v>
       </c>
-      <c r="I191" t="b">
+      <c r="H191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5790,15 +5219,12 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.00075000000000001</v>
+        <v>4</v>
       </c>
       <c r="G192" t="n">
-        <v>4</v>
-      </c>
-      <c r="H192" t="n">
         <v>-0.00188834820619096</v>
       </c>
-      <c r="I192" t="b">
+      <c r="H192" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5817,15 +5243,12 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.002009145755455966</v>
+        <v>4</v>
       </c>
       <c r="G193" t="n">
-        <v>4</v>
-      </c>
-      <c r="H193" t="n">
         <v>-0.002700471350422631</v>
       </c>
-      <c r="I193" t="b">
+      <c r="H193" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5846,15 +5269,12 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0.001968925256749717</v>
+        <v>4</v>
       </c>
       <c r="G194" t="n">
-        <v>4</v>
-      </c>
-      <c r="H194" t="n">
         <v>-0.0008179878548817735</v>
       </c>
-      <c r="I194" t="b">
+      <c r="H194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5873,15 +5293,12 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.001156143013068309</v>
+        <v>4</v>
       </c>
       <c r="G195" t="n">
-        <v>4</v>
-      </c>
-      <c r="H195" t="n">
         <v>0.0002285285365697665</v>
       </c>
-      <c r="I195" t="b">
+      <c r="H195" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5900,15 +5317,12 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.003080449101456967</v>
+        <v>4</v>
       </c>
       <c r="G196" t="n">
-        <v>4</v>
-      </c>
-      <c r="H196" t="n">
         <v>-0.002507416697099868</v>
       </c>
-      <c r="I196" t="b">
+      <c r="H196" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5929,15 +5343,12 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.001340397950858974</v>
+        <v>4</v>
       </c>
       <c r="G197" t="n">
-        <v>4</v>
-      </c>
-      <c r="H197" t="n">
         <v>-0.002163376137126685</v>
       </c>
-      <c r="I197" t="b">
+      <c r="H197" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5956,15 +5367,12 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0.0007937253933193946</v>
+        <v>4</v>
       </c>
       <c r="G198" t="n">
-        <v>4</v>
-      </c>
-      <c r="H198" t="n">
         <v>-0.001397161281956864</v>
       </c>
-      <c r="I198" t="b">
+      <c r="H198" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5983,15 +5391,12 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.002814693589007529</v>
+        <v>4</v>
       </c>
       <c r="G199" t="n">
-        <v>4</v>
-      </c>
-      <c r="H199" t="n">
         <v>-0.004172449844799488</v>
       </c>
-      <c r="I199" t="b">
+      <c r="H199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6012,15 +5417,12 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.002170061443062625</v>
+        <v>4</v>
       </c>
       <c r="G200" t="n">
-        <v>4</v>
-      </c>
-      <c r="H200" t="n">
         <v>-0.002942125227856811</v>
       </c>
-      <c r="I200" t="b">
+      <c r="H200" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6039,15 +5441,12 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.001116542281629629</v>
+        <v>4</v>
       </c>
       <c r="G201" t="n">
-        <v>4</v>
-      </c>
-      <c r="H201" t="n">
         <v>-0.005792189023968585</v>
       </c>
-      <c r="I201" t="b">
+      <c r="H201" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6066,15 +5465,12 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.002917047594172398</v>
+        <v>4</v>
       </c>
       <c r="G202" t="n">
-        <v>4</v>
-      </c>
-      <c r="H202" t="n">
         <v>-0.0047168330951392</v>
       </c>
-      <c r="I202" t="b">
+      <c r="H202" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6095,15 +5491,12 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.001454590434910589</v>
+        <v>4</v>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
-      </c>
-      <c r="H203" t="n">
         <v>-0.003259987506731105</v>
       </c>
-      <c r="I203" t="b">
+      <c r="H203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6122,15 +5515,12 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.0007499999999999815</v>
+        <v>4</v>
       </c>
       <c r="G204" t="n">
-        <v>4</v>
-      </c>
-      <c r="H204" t="n">
         <v>-0.001703030411410012</v>
       </c>
-      <c r="I204" t="b">
+      <c r="H204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6149,15 +5539,12 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.002714774392099687</v>
+        <v>4</v>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
-      </c>
-      <c r="H205" t="n">
         <v>-0.004288930674493645</v>
       </c>
-      <c r="I205" t="b">
+      <c r="H205" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6178,15 +5565,12 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0.001553490693030785</v>
+        <v>4</v>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
-      </c>
-      <c r="H206" t="n">
         <v>-0.003581624853580438</v>
       </c>
-      <c r="I206" t="b">
+      <c r="H206" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6205,15 +5589,12 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.0006020797289396949</v>
+        <v>4</v>
       </c>
       <c r="G207" t="n">
-        <v>4</v>
-      </c>
-      <c r="H207" t="n">
         <v>-0.002445865169150709</v>
       </c>
-      <c r="I207" t="b">
+      <c r="H207" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6232,15 +5613,12 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.002581988897471636</v>
+        <v>4</v>
       </c>
       <c r="G208" t="n">
-        <v>4</v>
-      </c>
-      <c r="H208" t="n">
         <v>-0.00522177417563279</v>
       </c>
-      <c r="I208" t="b">
+      <c r="H208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6261,15 +5639,12 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.001824600412875842</v>
+        <v>4</v>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
-      </c>
-      <c r="H209" t="n">
         <v>-0.00448946636864237</v>
       </c>
-      <c r="I209" t="b">
+      <c r="H209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6288,15 +5663,12 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.0009201449161227522</v>
+        <v>4</v>
       </c>
       <c r="G210" t="n">
-        <v>4</v>
-      </c>
-      <c r="H210" t="n">
         <v>-0.003924939857450504</v>
       </c>
-      <c r="I210" t="b">
+      <c r="H210" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6315,15 +5687,12 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0.002493324420661509</v>
+        <v>5</v>
       </c>
       <c r="G211" t="n">
-        <v>5</v>
-      </c>
-      <c r="H211" t="n">
         <v>-0.004251192575371663</v>
       </c>
-      <c r="I211" t="b">
+      <c r="H211" t="b">
         <v>0</v>
       </c>
     </row>
